--- a/individual_case_outputs/avey/465.xlsx
+++ b/individual_case_outputs/avey/465.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>diabetes mellitus (type 2)</t>
+          <t>type 1 diabetes mellitus</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>diabetes mellitus (type 2)</t>
+          <t>diabetic ketoacidosis</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>metabolic syndrome</t>
+          <t>polydepsia</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
